--- a/Bang quyet toan cong trinh.xlsx
+++ b/Bang quyet toan cong trinh.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -40,58 +40,16 @@
     <t>I</t>
   </si>
   <si>
-    <t>CẦU THANG ĐEN</t>
-  </si>
-  <si>
-    <t>CHIẾU NGHỈ</t>
-  </si>
-  <si>
-    <t>MẶC SÀN</t>
+    <t/>
   </si>
   <si>
     <t>CỘNG</t>
   </si>
   <si>
-    <t xml:space="preserve">II </t>
-  </si>
-  <si>
-    <t>CẦU THANG TRẮNG</t>
-  </si>
-  <si>
-    <t>ĐÁ ẤN ĐỘ</t>
-  </si>
-  <si>
-    <t>BẾP</t>
-  </si>
-  <si>
-    <t>CHỈ BẾP</t>
-  </si>
-  <si>
-    <t>2.87+3.42</t>
-  </si>
-  <si>
-    <t>BÀN QUẦY</t>
-  </si>
-  <si>
-    <t>CHỈ GHÉP</t>
-  </si>
-  <si>
-    <t>2.82+4.15</t>
-  </si>
-  <si>
-    <t>CỬA LẦU 1</t>
-  </si>
-  <si>
-    <t>1.4+2.6</t>
-  </si>
-  <si>
-    <t>CỬA SỔ BẾP</t>
-  </si>
-  <si>
-    <t>1.4+2.4</t>
-  </si>
-  <si>
-    <t>SẢNH CHÍNH</t>
+    <t>II</t>
+  </si>
+  <si>
+    <t>0.5+0.9+0.2+0.3+0.1</t>
   </si>
 </sst>
 </file>
@@ -115,7 +73,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -123,12 +81,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double"/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,32 +448,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -505,345 +485,245 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>1.22</v>
+        <v>0.3</v>
       </c>
       <c r="D2">
-        <v>0.32</v>
+        <v>0.2</v>
       </c>
       <c r="E2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>8.59</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1</v>
-      </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3">
-        <v>1.22</v>
+        <v>0.4</v>
       </c>
       <c r="D3">
-        <v>1.15</v>
+        <v>0.25</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>2.81</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>5.6</v>
+        <v>0.57</v>
       </c>
       <c r="D4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1.4</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>2.73</v>
-      </c>
-      <c r="D5">
-        <v>0.25</v>
-      </c>
-      <c r="E5">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5">
+        <v>0.49000000000000005</v>
+      </c>
+      <c r="G5">
+        <v>200000</v>
+      </c>
+      <c r="H5">
+        <v>98000.00000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0.39</v>
+      </c>
+      <c r="D7">
+        <v>0.28</v>
+      </c>
+      <c r="E7">
         <v>1</v>
       </c>
-      <c r="F5">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6">
-        <v>13.48</v>
-      </c>
-      <c r="G6">
-        <v>960000</v>
-      </c>
-      <c r="H6">
-        <v>12938208</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7">
-        <v>1.22</v>
-      </c>
-      <c r="D7">
-        <v>0.15</v>
-      </c>
-      <c r="E7">
-        <v>25</v>
-      </c>
       <c r="F7">
-        <v>4.58</v>
-      </c>
-      <c r="G7">
-        <v>740000</v>
-      </c>
-      <c r="H7">
-        <v>3385500</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>1</v>
-      </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>9</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8">
+        <v>0.19</v>
+      </c>
+      <c r="G8">
+        <v>300000</v>
+      </c>
+      <c r="H8">
+        <v>57000</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2</v>
+      <c r="A9" t="s">
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9">
-        <v>2.87</v>
-      </c>
-      <c r="D9">
-        <v>0.62</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9">
-        <v>1.78</v>
+        <v>0.03</v>
+      </c>
+      <c r="G9">
+        <v>258000</v>
+      </c>
+      <c r="H9">
+        <v>7740</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
       <c r="C10">
-        <v>2.8</v>
+        <v>0.6</v>
       </c>
       <c r="D10">
-        <v>0.62</v>
+        <v>0.3</v>
       </c>
       <c r="E10">
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1.74</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>0.3</v>
+      </c>
+      <c r="D11">
+        <v>0.2</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>0.89</v>
+      </c>
+      <c r="D12">
+        <v>0.4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13">
+        <v>0.6</v>
+      </c>
+      <c r="G13">
+        <v>250000</v>
+      </c>
+      <c r="H13">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F11">
-        <v>3.52</v>
-      </c>
-      <c r="G11">
-        <v>1400000</v>
-      </c>
-      <c r="H11">
-        <v>4921560</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>3</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12">
-        <v>6.29</v>
-      </c>
-      <c r="G12">
-        <v>230000</v>
-      </c>
-      <c r="H12">
-        <v>1446700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>2.82</v>
-      </c>
-      <c r="D13">
-        <v>0.43</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>3.72</v>
-      </c>
-      <c r="D14">
-        <v>0.43</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>12</v>
-      </c>
-      <c r="F15">
-        <v>2.81</v>
-      </c>
-      <c r="G15">
-        <v>1400000</v>
-      </c>
-      <c r="H15">
-        <v>3937080</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16">
-        <v>6.97</v>
-      </c>
-      <c r="G16">
-        <v>230000</v>
-      </c>
-      <c r="H16">
-        <v>1603100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17">
-        <v>4</v>
-      </c>
-      <c r="G17">
-        <v>320000</v>
-      </c>
-      <c r="H17">
-        <v>1280000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="F18">
-        <v>3.8</v>
-      </c>
-      <c r="G18">
-        <v>320000</v>
-      </c>
-      <c r="H18">
-        <v>1216000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19">
-        <v>4.9</v>
-      </c>
-      <c r="D19">
-        <v>4.32</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>21.17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="C20">
-        <v>1.95</v>
-      </c>
-      <c r="D20">
-        <v>1.44</v>
-      </c>
-      <c r="E20">
+      <c r="D14" s="4"/>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>2</v>
       </c>
-      <c r="F20">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="F21">
-        <v>13.48</v>
-      </c>
-      <c r="G21">
-        <v>960000</v>
-      </c>
-      <c r="H21">
-        <v>12938208</v>
+      <c r="G14" s="3">
+        <v>25000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>50000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="C14:D14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
